--- a/Test cases/PetKonnect.xlsx
+++ b/Test cases/PetKonnect.xlsx
@@ -5,15 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\eclipse-workspace\Petkonnect_Project\Test cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\eclipse-workspace\PetKonnect_Selenium_Project\Test cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D4C3BA-FDC2-4E01-9D4F-0B56ECA815B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AC8DC6-DB87-44B0-89A6-10575D3CCCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Homepage" sheetId="1" r:id="rId1"/>
+    <sheet name="Sign Up" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" sheetId="3" r:id="rId3"/>
+    <sheet name="Products" sheetId="4" r:id="rId4"/>
+    <sheet name="Add to cart" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="166">
   <si>
     <t>Test SC ID</t>
   </si>
@@ -66,9 +70,6 @@
     <t>1_1</t>
   </si>
   <si>
-    <t>Check whether user is able to navigate to Login page</t>
-  </si>
-  <si>
     <t>1. Open URL.</t>
   </si>
   <si>
@@ -176,12 +177,42 @@
     <t>PASS</t>
   </si>
   <si>
+    <t>TS_02</t>
+  </si>
+  <si>
+    <t>Check whether user is able to navigate to homepage</t>
+  </si>
+  <si>
+    <t>Check whether user is able to navigate to Register page</t>
+  </si>
+  <si>
+    <t>User should be able to navigate register page</t>
+  </si>
+  <si>
+    <t>Check navigation of sign up link</t>
+  </si>
+  <si>
+    <t>Check registration of account</t>
+  </si>
+  <si>
+    <t>Check whether user is able to register by entering valid details</t>
+  </si>
+  <si>
+    <t>Check whether user is able to register by entering invalid details</t>
+  </si>
+  <si>
+    <t>Check whether user is able to register by keeping fields blank</t>
+  </si>
+  <si>
     <t>As expected, able to navigate homepage</t>
   </si>
   <si>
     <t>As expected, Logo is visible</t>
   </si>
   <si>
+    <t>Not expected, all images are not visible</t>
+  </si>
+  <si>
     <t>FAIL</t>
   </si>
   <si>
@@ -197,14 +228,378 @@
     <t>As expected, not able to see products</t>
   </si>
   <si>
-    <t>Not expected, all images are not visible</t>
+    <t>2_3</t>
+  </si>
+  <si>
+    <t>1. Open URL.
+2. Go to Login and click on Create account button.</t>
+  </si>
+  <si>
+    <t>User should not be able to create an account</t>
+  </si>
+  <si>
+    <t>User should be able to create an account</t>
+  </si>
+  <si>
+    <t>As expected, user able to navigate register page</t>
+  </si>
+  <si>
+    <t>As expected, user should not be able to create an account</t>
+  </si>
+  <si>
+    <t>Test
+User
+invalid008@gmail.
+test@123</t>
+  </si>
+  <si>
+    <t>Check navigation of log in link</t>
+  </si>
+  <si>
+    <t>Check whether user is able to navigate Log in page</t>
+  </si>
+  <si>
+    <t>1. Open URL.
+2. Click on login button.</t>
+  </si>
+  <si>
+    <t>User should be able to navigate login page</t>
+  </si>
+  <si>
+    <t>Check whether user is able to log in by keeping fields blank</t>
+  </si>
+  <si>
+    <t>1. Open URL.
+2. Go to Login and click on Create account button.
+3. Keep input fields blank and click on create button.</t>
+  </si>
+  <si>
+    <t>1. Open URL.
+2. Go to Login and click on Create account button.
+3. Enter values in input and click on create button.</t>
+  </si>
+  <si>
+    <t>User should not be able to log in account</t>
+  </si>
+  <si>
+    <t>Check whether user is able to log in by entering invalid details</t>
+  </si>
+  <si>
+    <t>Check whether user is able to log in by entering valid details</t>
+  </si>
+  <si>
+    <t>abc12055@gmail.com
+test@123</t>
+  </si>
+  <si>
+    <t>abc@gmail.com
+test@123</t>
+  </si>
+  <si>
+    <t>1. Open URL.
+2. Click on login button.
+3. Keep input fields blank and click on Sign in button.</t>
+  </si>
+  <si>
+    <t>1. Open URL.
+2. Click on login button.
+3. Enter values in input fields blank and click on Sign in button.</t>
+  </si>
+  <si>
+    <t>As expected, user able to navigate login page</t>
+  </si>
+  <si>
+    <t>As expected, user not able to login an account</t>
+  </si>
+  <si>
+    <t>TS_03</t>
+  </si>
+  <si>
+    <t>TS_04</t>
+  </si>
+  <si>
+    <t>Check navigation of all products page link</t>
+  </si>
+  <si>
+    <t>Check whether user is able to navigate products page</t>
+  </si>
+  <si>
+    <t>1. Open URL.
+2. Click on shop all button.</t>
+  </si>
+  <si>
+    <t>User should be able to navigate products page</t>
+  </si>
+  <si>
+    <t>Check price filters functionality</t>
+  </si>
+  <si>
+    <t>Check whether from price filter able show only products as per input</t>
+  </si>
+  <si>
+    <t>Products should be filter as per from input price</t>
+  </si>
+  <si>
+    <t>420
+1000</t>
+  </si>
+  <si>
+    <t>Check whether to price filter able show only products as per input</t>
+  </si>
+  <si>
+    <t>Check whether from and to price filter able show only products as per input</t>
+  </si>
+  <si>
+    <t>1. Open URL.
+2. Click on shop all button.
+3. Enter value in from input.</t>
+  </si>
+  <si>
+    <t>1. Open URL.
+2. Click on shop all button.
+3. Enter value in to input.</t>
+  </si>
+  <si>
+    <t>1. Open URL.
+2. Click on shop all button.
+3. Enter value in from and to  input.</t>
+  </si>
+  <si>
+    <t>Products should be filter as per to input price</t>
+  </si>
+  <si>
+    <t>Products should be filter as per from and to input price</t>
+  </si>
+  <si>
+    <t>Check product type filter functionality</t>
+  </si>
+  <si>
+    <t>Check whether user is able to filter products by selecting product types</t>
+  </si>
+  <si>
+    <t>1. Open URL.
+2. Click on shop all button.
+3. Select product types.</t>
+  </si>
+  <si>
+    <t>Bird Food
+Cat toys</t>
+  </si>
+  <si>
+    <t>User should be able to filter products</t>
+  </si>
+  <si>
+    <t>Check more filters functionality</t>
+  </si>
+  <si>
+    <t>Check whether user is able to filter products by selecting more filters</t>
+  </si>
+  <si>
+    <t>1. Open URL.
+2. Click on shop all button.
+3. Select more filters.</t>
+  </si>
+  <si>
+    <t>cat treats
+dry dog food</t>
+  </si>
+  <si>
+    <t>Check color filter functionality</t>
+  </si>
+  <si>
+    <t>Check size filter  functionality</t>
+  </si>
+  <si>
+    <t>Check Brand filter  functionality</t>
+  </si>
+  <si>
+    <t>5_1</t>
+  </si>
+  <si>
+    <t>6_1</t>
+  </si>
+  <si>
+    <t>7_1</t>
+  </si>
+  <si>
+    <t>Check whether user is able to filter products by selecting color</t>
+  </si>
+  <si>
+    <t>1. Open URL.
+2. Click on shop all button.
+3. Select color filter.</t>
+  </si>
+  <si>
+    <t>Check whether user is able to filter products by selecting size</t>
+  </si>
+  <si>
+    <t>1. Open URL.
+2. Click on shop all button.
+3. Select size filter.</t>
+  </si>
+  <si>
+    <t>Check whether user is able to filter products by selecting brand</t>
+  </si>
+  <si>
+    <t>1. Open URL.
+2. Click on shop all button.
+3. Select brand filter.</t>
+  </si>
+  <si>
+    <t>Assorted
+black
+blue
+cream</t>
+  </si>
+  <si>
+    <t>M
+13 cm
+6 cm
+L</t>
+  </si>
+  <si>
+    <t>Arden
+beeps</t>
+  </si>
+  <si>
+    <t>Check Clear all functionality</t>
+  </si>
+  <si>
+    <t>8_1</t>
+  </si>
+  <si>
+    <t>Check whether user able to clear filtered products</t>
+  </si>
+  <si>
+    <t>1. Open URL.
+2. Click on shop all button.
+3. Filter products and then click on clear all button.</t>
+  </si>
+  <si>
+    <t>User should be able to clear filtered products</t>
+  </si>
+  <si>
+    <t>As expected, user able to navigate all products page</t>
+  </si>
+  <si>
+    <t>As expected, products are filtered</t>
+  </si>
+  <si>
+    <t>As expected, user able to navigate product page</t>
+  </si>
+  <si>
+    <t>TS_05</t>
+  </si>
+  <si>
+    <t>Check whether user is able to navigate product page</t>
+  </si>
+  <si>
+    <t>1. Open URL.
+2. Search product and click on it.</t>
+  </si>
+  <si>
+    <t>User able to navigate product page</t>
+  </si>
+  <si>
+    <t>Check single product navigation</t>
+  </si>
+  <si>
+    <t>Check product add in cart functionality</t>
+  </si>
+  <si>
+    <t>Check whether user is able to add product in cart</t>
+  </si>
+  <si>
+    <t>1. Open URL.
+2. Search product and click on it.
+3. Set quantity and click on add to cart button.</t>
+  </si>
+  <si>
+    <t>As expected, user able to add product in cart</t>
+  </si>
+  <si>
+    <t>User should be able to add product in cart</t>
+  </si>
+  <si>
+    <t>Not expected, user not able to create an account</t>
+  </si>
+  <si>
+    <t>As expected, user able to checkout the product</t>
+  </si>
+  <si>
+    <t>Check product check out functionality</t>
+  </si>
+  <si>
+    <t>Check whether user is able to check out the product</t>
+  </si>
+  <si>
+    <t>1. Open URL.
+2. Search product and click on it.
+3. Set quantity and click on add to cart button.
+4. Click on Checkout button.
+5. Enter details in address inputs and click on Pay Now.</t>
+  </si>
+  <si>
+    <t>User should be navigate to razorpay page</t>
+  </si>
+  <si>
+    <t>Check remove product from cart functionality</t>
+  </si>
+  <si>
+    <t>Check whether user is able to remove product from cart</t>
+  </si>
+  <si>
+    <t>1. Open URL.
+2. Search product and click on it.
+3. Set quantity and click on add to cart button.
+4. Click on Checkout button.
+5. Click on Cart button and click on remove button.</t>
+  </si>
+  <si>
+    <t>User should be able to remove product from cart</t>
+  </si>
+  <si>
+    <t>As expected, user able remove product</t>
+  </si>
+  <si>
+    <t>Not expected, user not able to login an account</t>
+  </si>
+  <si>
+    <t>Check logout functionality</t>
+  </si>
+  <si>
+    <t>Check whether user is able to logout account</t>
+  </si>
+  <si>
+    <t>1. Open URL.
+2. Click on login button.
+3. Enter values in input fields blank and click on Sign in button.
+4. Click on logout button.</t>
+  </si>
+  <si>
+    <t>Test2
+User
+abc014@gmail.com
+test@123</t>
+  </si>
+  <si>
+    <t>User should be able to logout account</t>
+  </si>
+  <si>
+    <t>Not expected, unable to clear products</t>
+  </si>
+  <si>
+    <t>Not expected, unable to logout</t>
+  </si>
+  <si>
+    <t>Not expected, unable to filter products</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,24 +608,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -239,17 +616,132 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -327,54 +819,74 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -658,270 +1170,1142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14" style="8" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="6" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="27.85546875" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="8"/>
+    <col min="10" max="10" width="27.85546875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>47</v>
+      <c r="H4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>43</v>
+      <c r="F5" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>32</v>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>34</v>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>24</v>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="C9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="H9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="C10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>47</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{6E594E9F-56A5-41F0-9C08-349F2188EAD1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0458B6-EDBF-40A4-B43C-AB9D7D97E253}">
+  <dimension ref="A2:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="22" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{73938E0A-D11D-4A9E-B655-294BCEB9E64C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5B1D5B-EE07-41E5-8491-B356DF4292FC}">
+  <dimension ref="A2:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{6D44C52A-14F2-4672-9A16-34DD26B1F471}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88336A2B-2988-477D-A4DD-F929B2382913}">
+  <dimension ref="A2:I12"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="25" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="10">
+        <v>420</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{F72CB425-6849-4088-AA0E-C6F71E5FAC24}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7014F871-8666-493B-9C89-7327CD1FB6D4}">
+  <dimension ref="A2:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="42"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{68D166C5-799E-4B28-8897-798ACFF41696}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>